--- a/Dallas/Dallas.xlsx
+++ b/Dallas/Dallas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="977" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Dept/Division</t>
   </si>
   <si>
-    <t xml:space="preserve">General Funds 2020</t>
+    <t xml:space="preserve">General Fund 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Arts &amp; Culture</t>
@@ -184,15 +184,15 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -214,7 +214,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>24022387</v>
+        <v>23806062</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -225,7 +225,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>9774244</v>
+        <v>9562529</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -236,7 +236,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>8685999</v>
+        <v>8259256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -247,7 +247,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>3724571</v>
+        <v>3671181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -258,7 +258,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>7084419</v>
+        <v>6899499</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,7 +269,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>35330701</v>
+        <v>33876186</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,7 +280,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>53347487</v>
+        <v>51945188</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,7 +291,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>105715082</v>
+        <v>102452301</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,7 +302,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>3370019</v>
+        <v>3441703</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,7 +313,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>571691215</v>
+        <v>546458107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -324,7 +324,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>88957949</v>
+        <v>86267138</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,7 +335,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>44950438</v>
+        <v>46401338</v>
       </c>
     </row>
   </sheetData>
